--- a/normativa/Anexos/L05T02C03/L05T02C03A04.17.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A04.17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" r:id="rId1"/>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -735,22 +735,22 @@
   <dimension ref="A1:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>29</v>
       </c>
@@ -1982,7 +1982,7 @@
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
@@ -1996,9 +1996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
